--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96405.44886505681</v>
+        <v>93966.97576530986</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>7.660466962112764</v>
       </c>
       <c r="G2" t="n">
-        <v>396.7596590901043</v>
+        <v>137.5877031596002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.3328837404221</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.79537822841627</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>87.62154955555326</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>278.1429131767404</v>
       </c>
       <c r="F5" t="n">
-        <v>118.7036917691083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1026,7 +1026,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>57.39050604948937</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>150.3013276789174</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.517435627157</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>199.9298361203457</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
-        <v>47.84205650381797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>60.6471314173121</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428618</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428163</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1991.281821781444</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1622.319304841033</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D2" t="n">
-        <v>1264.053606234282</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E2" t="n">
-        <v>878.2653536360378</v>
+        <v>552.807938939213</v>
       </c>
       <c r="F2" t="n">
-        <v>467.2794488464302</v>
+        <v>545.0700935229376</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149023</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2377.881661845566</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>449.8213709509847</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>280.8851880230778</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>832.3803901055048</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.4698357812244</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>899.070885937115</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E5" t="n">
-        <v>899.070885937115</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>671.2309135142141</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>382.1280466398576</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218345</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>78.3348699696229</v>
@@ -4966,46 +4966,46 @@
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>465.5282911402551</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402551</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E13" t="n">
-        <v>317.615197557862</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F13" t="n">
-        <v>317.615197557862</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G13" t="n">
-        <v>317.615197557862</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="H13" t="n">
-        <v>175.90336640006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5510,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>399.2155787795987</v>
       </c>
       <c r="G2" t="n">
-        <v>14.16206656334912</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.4047645948099</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788663</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.779641435508475e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.77391660561915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864506</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405039</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>30.95754073885493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194222</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>989091.8491444926</v>
+        <v>989091.8491444924</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1083497.955784541</v>
+        <v>1083497.955784542</v>
       </c>
     </row>
     <row r="14">
@@ -26314,22 +26314,22 @@
         <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="G2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682529</v>
@@ -26338,22 +26338,22 @@
         <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="O2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551151</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138721</v>
+        <v>51041.86039138722</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,19 +26439,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>14826.69604186732</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="M4" t="n">
-        <v>14826.69604186741</v>
-      </c>
       <c r="N4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1170464.670539687</v>
+        <v>-1170651.063928226</v>
       </c>
       <c r="C6" t="n">
-        <v>147412.0675268748</v>
+        <v>147412.0675268745</v>
       </c>
       <c r="D6" t="n">
-        <v>147412.0675268747</v>
+        <v>147412.0675268745</v>
       </c>
       <c r="E6" t="n">
-        <v>-98324.38280487675</v>
+        <v>-98359.12073031232</v>
       </c>
       <c r="F6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="G6" t="n">
-        <v>227088.0790024783</v>
+        <v>227053.3410770429</v>
       </c>
       <c r="H6" t="n">
-        <v>227088.0790024783</v>
+        <v>227053.3410770423</v>
       </c>
       <c r="I6" t="n">
-        <v>227088.0790024786</v>
+        <v>227053.3410770427</v>
       </c>
       <c r="J6" t="n">
-        <v>9556.876605201076</v>
+        <v>9522.138679765354</v>
       </c>
       <c r="K6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770426</v>
       </c>
       <c r="L6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770428</v>
       </c>
       <c r="M6" t="n">
-        <v>142033.0510669666</v>
+        <v>141998.3131415307</v>
       </c>
       <c r="N6" t="n">
-        <v>227088.0790024781</v>
+        <v>227053.3410770428</v>
       </c>
       <c r="O6" t="n">
-        <v>227088.0790024785</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="P6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770426</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>273.3340224938532</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>177.9050549156315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>82.82009478979609</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>102.1474757758886</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>103.7874568955214</v>
       </c>
       <c r="F5" t="n">
-        <v>288.1723539726032</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>162.1584432266798</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>32.47773633174498</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923753</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>52.20780720348228</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0649678661466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.2222086167877</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0872899694772</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>208.6096528357816</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334544</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
